--- a/src/main/resources/template13.xlsx
+++ b/src/main/resources/template13.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>测试${c.msg}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是一个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${totalAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,24 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="54.25" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="4" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="54.25" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -478,8 +490,9 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,19 +506,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -519,29 +535,36 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template13.xlsx
+++ b/src/main/resources/template13.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>${totalAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.id-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.id * 10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -480,9 +496,11 @@
     <col min="7" max="7" width="54.25" customWidth="1"/>
     <col min="8" max="8" width="27.25" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +510,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +538,14 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -549,8 +573,14 @@
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="C6" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/template13.xlsx
+++ b/src/main/resources/template13.xlsx
@@ -23,6 +23,121 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>陈绮琳</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈绮琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈绮琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+222</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈绮琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+444</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈绮琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+333</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
@@ -137,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +267,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -480,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -599,5 +729,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>